--- a/pred_ohlcv/54_21/2019-10-16 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>24232.99110262</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>25686.63680262</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>33728.13620262</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>27730.23360262</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>30107.45230262</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>30774.47710981</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>42944.78984697</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>61842.52230986</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>73253.16790986</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>65955.78860986</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -886,7 +886,7 @@
         <v>50915.80690986</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>47471.95740986001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>63446.24210986</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>69373.29190986</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>68576.13750986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>68878.31850985999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>57654.29200986</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>59371.08710986</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>59371.08710986</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>60037.23990986001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>64913.72550986001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>65451.03330986001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>96976.84330986001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>119431.93500986</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>131617.29880986</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>105887.18400986</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>101118.97860986</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>104664.21540986</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>101281.05420986</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>77106.97480985998</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>49788.27410985998</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>37926.76760985998</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>32995.53335750996</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>30786.90354462997</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>32761.75734462997</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>33494.50494462997</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>32369.27924462998</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>28062.32594462997</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>20835.90544462997</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>17704.83391962997</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>14345.37571962997</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>18603.38811962997</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>23861.50681962997</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>19278.54061962997</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>20546.84701962997</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>22099.17021962997</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>22099.17021962997</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>23600.29121962997</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>25842.13291962997</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>25843.13291962997</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>25843.13291962997</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>26949.71121977997</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>26600.41821977997</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>50613.89901962997</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>50496.52968948998</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>47790.45658948998</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>47790.45658948998</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>45701.67478948998</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>46850.67548948998</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>45192.02158948998</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>47633.92138948998</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>71539.78253136996</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>69874.83113136998</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>69874.83113136998</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>69835.66923136998</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>70029.74293136997</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>70029.74293136997</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>69847.60493136996</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>69989.85583136996</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>70031.25543136997</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>69923.98933136997</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>69803.98933136997</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>69805.84163136997</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>69725.84163136997</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>69888.34163136997</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>69653.37693136997</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>69653.37693136997</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>69665.47623136998</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>69795.42083136998</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>69795.42083136998</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>69196.11253136997</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>69196.11253136997</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>69196.11253136997</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>69196.11253136997</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>68564.87073136997</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>66699.35133136997</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>66814.91963136996</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>66890.97533136996</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>65830.97533136996</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>65932.98063136997</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>65932.98063136997</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>62788.45823136996</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>63341.72363136996</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>63886.73013136996</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>62736.77203136996</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>61668.03098176996</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>65718.11248176996</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>65458.44488176996</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>65521.24458176996</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>65401.24458176996</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>65428.35528176996</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>65428.35528176996</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>64760.97048176996</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>64761.97048176996</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>64761.97048176996</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>64761.97048176996</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>64761.97048176996</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>62768.84548176996</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>62875.53388176996</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>62503.55758176996</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>62503.55758176996</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>62613.86218176996</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>62478.20778176996</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>62216.80108176996</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>61940.38728176996</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>61949.05398176996</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>61662.11778176996</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>61662.11778176996</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>61662.11778176996</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>62462.53478176997</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>61686.76308176997</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>61304.74208176997</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>61153.78168176996</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>61318.26818176996</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>61079.96338176997</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>61748.28358176997</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>61990.69198176997</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>61450.84928176997</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>61584.26758176996</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>61543.44798176996</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>61543.44798176996</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>61733.18988176996</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>61777.35298176996</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>62623.52657288996</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>62623.52657288996</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>60695.58297288996</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>60696.58297288996</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>60028.83907288996</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>60607.83047288996</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>60156.71847288996</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>60179.72017288996</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>59810.70447288996</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>59810.70447288996</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>59810.70447288996</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>59810.70447288996</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>59547.74067288996</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>59624.70777288996</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>59624.70777288996</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>59945.78387288996</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>59945.78387288996</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>62025.34457288996</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>62025.34457288996</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>62634.71387288996</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>66373.08013099997</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>68896.20793099997</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>71933.63653099997</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>70111.01639017997</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>70830.98709017997</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>70830.98709017997</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>70830.98709017997</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>71232.43179017998</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>73336.22609017997</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>73336.22609017997</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>73024.22609017997</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>73542.66989017997</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>73303.60189017997</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>73628.05409017997</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>74488.80029017996</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>74488.80029017996</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>74488.80029017996</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>73819.74149017996</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>75010.56559017996</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>76189.05859017996</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>76071.55279017997</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>74896.00609017996</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>77007.01099017996</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>77067.44979017996</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>74385.63019017996</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>78061.86049017996</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>77395.76489017995</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>77395.76489017995</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>77441.69419017996</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>77422.06849017995</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>79632.36169017995</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>79632.36169017995</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>81114.93109017995</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>81886.24909017995</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>83276.03189017995</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>89068.00749017995</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>52265.12340667992</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>51380.52340667992</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>54234.52340667992</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>54232.52590667993</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>53169.18800667993</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>53499.38800667992</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>53500.38800667992</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>53348.38800667992</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>54590.74180667992</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>53920.14180667992</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>54904.29400667992</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>55203.81690667992</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>55301.81690667992</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>55301.81690667992</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>55301.81690667992</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>55732.81690667992</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>55732.81690667992</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>58815.61110667992</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>58815.61110667992</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>58815.61110667992</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>59425.61110667992</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>59425.61110667992</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>59425.61110667992</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>59425.61110667992</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>59425.61110667992</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>60825.22400667992</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>60463.90720667992</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>58788.75030667992</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>60348.11530667992</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>60896.11530667992</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>60920.11530667992</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>60551.39770667991</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>60552.96510667991</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>60175.33360667991</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>60175.33360667991</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>59079.23560667991</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>59079.23560667991</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>59447.95320667991</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>59454.95320667991</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>59454.95320667991</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>59454.95320667991</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>59381.95320667991</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>60140.05310667992</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>60140.05310667992</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>56340.96950667992</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>56749.71190667992</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>56478.67120667992</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>56766.02620667993</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>56689.53750667992</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>56690.53750667992</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>56690.53750667992</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>56133.72130667992</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>56134.72130667992</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>55806.14740667992</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>55471.14740667992</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>50125.48340667992</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>49619.91210667992</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>49294.52580667992</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>49294.52580667992</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>49295.52580667992</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>49197.47580667992</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>49197.47580667992</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>49254.47580667992</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>49128.90290667992</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>49128.90290667992</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>49128.90290667992</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>50407.04240667992</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>52037.78950667992</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>52015.37300667992</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>51603.77050667992</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>51445.82270667992</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>51445.82270667992</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>49993.63890667992</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>53468.44910667992</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>53468.44910667992</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>53468.44910667992</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>53468.44910667992</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>53468.44910667992</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>54602.77260667992</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>54608.53660667992</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>54553.59070667992</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>54545.65860667992</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>54545.65860667992</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>56119.08890667992</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>56119.08890667992</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>56119.08890667992</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>54842.68030667992</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>54843.68030667992</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>54239.18030667992</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>54239.18030667992</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>55229.68670667992</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>55718.35710667992</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>55718.35710667992</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>56278.35710667992</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>57073.35710667992</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>57073.35710667992</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>56886.76410667992</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>56973.06410667992</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>57641.06410667992</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>59794.06390667992</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>59794.06390667992</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>58547.89430667992</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>57209.89430667992</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>57209.89430667992</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>56768.48400667992</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>56356.91300667991</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>56359.66576257991</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>56115.13866257991</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>56856.13866257991</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>56647.88346257991</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>59473.61060667991</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>59473.61060667991</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>59473.61060667991</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>59473.61060667991</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>58971.11060667991</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>58864.68890667991</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>58864.68890667991</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>59762.56836081991</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>59242.13416081991</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>59258.13416081991</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>59178.13416081991</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>59502.2255608199</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>59057.44496081991</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>59059.5884939399</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>58524.5884939399</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>58524.5884939399</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>57180.9314939399</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>57261.9314939399</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>56646.24389393991</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-16 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>24232.99110262</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>25686.63680262</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>33728.13620262</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>27730.23360262</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>30107.45230262</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>30774.47710981</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>42944.78984697</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>61842.52230986</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>73253.16790986</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>65955.78860986</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -886,7 +886,7 @@
         <v>50915.80690986</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>47471.95740986001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>63446.24210986</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>69373.29190986</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>68576.13750986</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>68878.31850985999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>57654.29200986</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>59371.08710986</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>59371.08710986</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>60037.23990986001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>64913.72550986001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>65451.03330986001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>96976.84330986001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>119431.93500986</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>131617.29880986</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>105887.18400986</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>101118.97860986</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>104664.21540986</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>101281.05420986</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>91891.65530985998</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>77106.97480985998</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>49788.27410985998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>37926.76760985998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>20323.74564462997</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>18426.34111962997</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>17923.13711962997</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>13766.17571962997</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>14537.17571962997</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>13260.07751962997</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>14171.86251962997</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>23687.06171962997</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>20546.84701962997</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>22583.17021962997</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>25778.75271977997</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>25557.69531977997</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>25779.39531977997</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>26672.19261977997</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>29219.40681977997</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>34728.65361962997</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>47790.45658948998</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>45701.67478948998</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>71539.78253136996</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>102022.32260668</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>98194.86690667995</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>88240.61440667995</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>91940.22880667995</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>93719.65110667996</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>91167.46350667995</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>87315.50120667995</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>52016.37300667992</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
